--- a/www/IndicatorsPerCountry/Paraguay_GDPperCapita_TerritorialRef_1946_2012_CCode_600.xlsx
+++ b/www/IndicatorsPerCountry/Paraguay_GDPperCapita_TerritorialRef_1946_2012_CCode_600.xlsx
@@ -267,13 +267,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Paraguay_GDPperCapita_TerritorialRef_1946_2012_CCode_600.xlsx
+++ b/www/IndicatorsPerCountry/Paraguay_GDPperCapita_TerritorialRef_1946_2012_CCode_600.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="96">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,208 +36,235 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1894</t>
-  </si>
-  <si>
-    <t>1752</t>
-  </si>
-  <si>
-    <t>1741</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>1796</t>
-  </si>
-  <si>
-    <t>1792</t>
-  </si>
-  <si>
-    <t>1690</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>1542</t>
-  </si>
-  <si>
-    <t>1524</t>
-  </si>
-  <si>
-    <t>1740</t>
-  </si>
-  <si>
-    <t>1584</t>
-  </si>
-  <si>
-    <t>1573</t>
-  </si>
-  <si>
-    <t>1506</t>
-  </si>
-  <si>
-    <t>1509</t>
-  </si>
-  <si>
-    <t>1495</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>1547</t>
-  </si>
-  <si>
-    <t>1578</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>1555</t>
-  </si>
-  <si>
-    <t>1588</t>
-  </si>
-  <si>
-    <t>1657</t>
-  </si>
-  <si>
-    <t>1659</t>
-  </si>
-  <si>
-    <t>1687</t>
-  </si>
-  <si>
-    <t>1739</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1774</t>
-  </si>
-  <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1872</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1946</t>
-  </si>
-  <si>
-    <t>2038</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>2219</t>
-  </si>
-  <si>
-    <t>2313</t>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>2644</t>
+  </si>
+  <si>
+    <t>2627</t>
+  </si>
+  <si>
+    <t>2716</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>2705</t>
+  </si>
+  <si>
+    <t>2550</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>2326</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>2373</t>
+  </si>
+  <si>
+    <t>2273</t>
+  </si>
+  <si>
+    <t>2276</t>
+  </si>
+  <si>
+    <t>2255</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>2381</t>
+  </si>
+  <si>
+    <t>2453</t>
+  </si>
+  <si>
+    <t>2385</t>
+  </si>
+  <si>
+    <t>2346</t>
+  </si>
+  <si>
+    <t>2396</t>
+  </si>
+  <si>
+    <t>2499</t>
   </si>
   <si>
     <t>2504</t>
   </si>
   <si>
-    <t>2717</t>
-  </si>
-  <si>
-    <t>2952</t>
-  </si>
-  <si>
-    <t>3301</t>
-  </si>
-  <si>
-    <t>3494</t>
-  </si>
-  <si>
-    <t>3281</t>
-  </si>
-  <si>
-    <t>3093</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>3131</t>
-  </si>
-  <si>
-    <t>3038</t>
-  </si>
-  <si>
-    <t>3079</t>
-  </si>
-  <si>
-    <t>3185</t>
-  </si>
-  <si>
-    <t>3276</t>
-  </si>
-  <si>
-    <t>3268</t>
-  </si>
-  <si>
-    <t>3230</t>
-  </si>
-  <si>
-    <t>3266</t>
-  </si>
-  <si>
-    <t>3270</t>
-  </si>
-  <si>
-    <t>3325</t>
-  </si>
-  <si>
-    <t>3271</t>
-  </si>
-  <si>
-    <t>3172</t>
-  </si>
-  <si>
-    <t>3103</t>
-  </si>
-  <si>
-    <t>3011</t>
-  </si>
-  <si>
-    <t>2994</t>
-  </si>
-  <si>
-    <t>2916</t>
-  </si>
-  <si>
-    <t>2951</t>
-  </si>
-  <si>
-    <t>2996</t>
-  </si>
-  <si>
-    <t>3007</t>
-  </si>
-  <si>
-    <t>3060</t>
-  </si>
-  <si>
-    <t>3190</t>
-  </si>
-  <si>
-    <t>3295</t>
+    <t>2546</t>
+  </si>
+  <si>
+    <t>2624</t>
+  </si>
+  <si>
+    <t>2584</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>2699</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>2825</t>
+  </si>
+  <si>
+    <t>2906</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>3150</t>
+  </si>
+  <si>
+    <t>3319</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>3945</t>
+  </si>
+  <si>
+    <t>4302</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>5113</t>
+  </si>
+  <si>
+    <t>5424</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>4935</t>
+  </si>
+  <si>
+    <t>4945</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>4854</t>
+  </si>
+  <si>
+    <t>4919</t>
+  </si>
+  <si>
+    <t>5082</t>
+  </si>
+  <si>
+    <t>5222</t>
+  </si>
+  <si>
+    <t>5224.29964823441</t>
+  </si>
+  <si>
+    <t>5186.56395411901</t>
+  </si>
+  <si>
+    <t>5270.89949164179</t>
+  </si>
+  <si>
+    <t>5305.50060000441</t>
+  </si>
+  <si>
+    <t>5463.62280375544</t>
+  </si>
+  <si>
+    <t>5360.7433034385</t>
+  </si>
+  <si>
+    <t>5399.42576881654</t>
+  </si>
+  <si>
+    <t>5321.9192550144</t>
+  </si>
+  <si>
+    <t>5150.40853577152</t>
+  </si>
+  <si>
+    <t>4896.42954805479</t>
+  </si>
+  <si>
+    <t>4918.04592470595</t>
+  </si>
+  <si>
+    <t>5571.42745782661</t>
+  </si>
+  <si>
+    <t>5726.99001157431</t>
+  </si>
+  <si>
+    <t>5876.6602742802</t>
+  </si>
+  <si>
+    <t>5922.79084970594</t>
+  </si>
+  <si>
+    <t>6128.64243161289</t>
+  </si>
+  <si>
+    <t>6383.48520557356</t>
+  </si>
+  <si>
+    <t>6713.03020771669</t>
+  </si>
+  <si>
+    <t>6376.94154252225</t>
+  </si>
+  <si>
+    <t>7139.02684353373</t>
+  </si>
+  <si>
+    <t>7377</t>
+  </si>
+  <si>
+    <t>7193</t>
+  </si>
+  <si>
+    <t>8102</t>
+  </si>
+  <si>
+    <t>8382</t>
+  </si>
+  <si>
+    <t>8539</t>
+  </si>
+  <si>
+    <t>8786</t>
   </si>
   <si>
     <t>Description</t>
@@ -1324,7 +1351,7 @@
         <v>1996.0</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1341,7 +1368,7 @@
         <v>1997.0</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
@@ -1358,7 +1385,7 @@
         <v>1998.0</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
@@ -1375,7 +1402,7 @@
         <v>1999.0</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63">
@@ -1392,7 +1419,7 @@
         <v>2000.0</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
@@ -1409,7 +1436,7 @@
         <v>2001.0</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65">
@@ -1426,7 +1453,7 @@
         <v>2002.0</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66">
@@ -1443,7 +1470,7 @@
         <v>2003.0</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67">
@@ -1460,7 +1487,7 @@
         <v>2004.0</v>
       </c>
       <c r="E67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68">
@@ -1477,7 +1504,7 @@
         <v>2005.0</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69">
@@ -1494,7 +1521,7 @@
         <v>2006.0</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70">
@@ -1511,7 +1538,7 @@
         <v>2007.0</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71">
@@ -1528,7 +1555,143 @@
         <v>2008.0</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1546,50 +1709,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
